--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC671E0E-C76F-4E24-89C7-4D993AFDE4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA079BE-D088-48D0-86D5-4FE797E83D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Day 1</t>
   </si>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C8" activeCellId="1" sqref="A6:A12 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,8 +465,36 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
